--- a/InputFiles/ICDC/TC03_ICDC_GLIOMA01_Breed-BostonTerrier.xlsx
+++ b/InputFiles/ICDC/TC03_ICDC_GLIOMA01_Breed-BostonTerrier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\ICDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EF2EEE-72A7-40D5-8146-04F0270CC7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F03ABD-1D8E-4F8A-A620-C72E06DF45F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="46785" yWindow="2235" windowWidth="23250" windowHeight="13170" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -684,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
